--- a/data/pca/factorExposure/factorExposure_2016-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01450123506926893</v>
+        <v>0.01123032564548822</v>
       </c>
       <c r="C2">
-        <v>0.0503888353604225</v>
+        <v>0.04182598349037261</v>
       </c>
       <c r="D2">
-        <v>-0.02518612646408182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06345542653615781</v>
+      </c>
+      <c r="E2">
+        <v>0.04949530147302792</v>
+      </c>
+      <c r="F2">
+        <v>-0.08568041456494239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0522706509347512</v>
+        <v>0.03133861687725123</v>
       </c>
       <c r="C3">
-        <v>0.0985253178962818</v>
+        <v>0.08073724120380976</v>
       </c>
       <c r="D3">
-        <v>-0.05364944995997194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1005230016089978</v>
+      </c>
+      <c r="E3">
+        <v>0.06824872635584657</v>
+      </c>
+      <c r="F3">
+        <v>-0.02581392822864548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06513098812732906</v>
+        <v>0.05440552696344964</v>
       </c>
       <c r="C4">
-        <v>0.05781220675347361</v>
+        <v>0.06448835754751006</v>
       </c>
       <c r="D4">
-        <v>-0.01796641002794266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06017192513868467</v>
+      </c>
+      <c r="E4">
+        <v>0.04531049363578379</v>
+      </c>
+      <c r="F4">
+        <v>-0.07838161857933791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02924011138103335</v>
+        <v>0.03202512066900693</v>
       </c>
       <c r="C6">
-        <v>0.04243227960818893</v>
+        <v>0.03704249693291448</v>
       </c>
       <c r="D6">
-        <v>-0.02752610121627441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07053430461305478</v>
+      </c>
+      <c r="E6">
+        <v>0.05864089558221493</v>
+      </c>
+      <c r="F6">
+        <v>-0.07441700911447036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02461640544606336</v>
+        <v>0.01984843002843015</v>
       </c>
       <c r="C7">
-        <v>0.03825361587447898</v>
+        <v>0.03570547460201118</v>
       </c>
       <c r="D7">
-        <v>0.003630475394607585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04001725529401697</v>
+      </c>
+      <c r="E7">
+        <v>0.03286498619301054</v>
+      </c>
+      <c r="F7">
+        <v>-0.1111524655864225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001151518913677083</v>
+        <v>0.003276698181043623</v>
       </c>
       <c r="C8">
-        <v>0.01798944314643541</v>
+        <v>0.02430829100385265</v>
       </c>
       <c r="D8">
-        <v>-0.03110987121244463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03644080362591744</v>
+      </c>
+      <c r="E8">
+        <v>0.03864231200179329</v>
+      </c>
+      <c r="F8">
+        <v>-0.05451684159708939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02977271998145179</v>
+        <v>0.03384109504155445</v>
       </c>
       <c r="C9">
-        <v>0.04200870908590267</v>
+        <v>0.05027163747532932</v>
       </c>
       <c r="D9">
-        <v>-0.01282708775456573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04561351393523195</v>
+      </c>
+      <c r="E9">
+        <v>0.03762154097866816</v>
+      </c>
+      <c r="F9">
+        <v>-0.08735988809994154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07790744372362508</v>
+        <v>0.1049472817675261</v>
       </c>
       <c r="C10">
-        <v>-0.1935449218862247</v>
+        <v>-0.1865691220260941</v>
       </c>
       <c r="D10">
-        <v>-0.008996178485079867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0003694176641903727</v>
+      </c>
+      <c r="E10">
+        <v>0.04487416757724787</v>
+      </c>
+      <c r="F10">
+        <v>-0.03935780168482653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04039191013756491</v>
+        <v>0.03411236663909249</v>
       </c>
       <c r="C11">
-        <v>0.05355404306613414</v>
+        <v>0.05178054518029796</v>
       </c>
       <c r="D11">
-        <v>0.002396149531541889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03351031924818081</v>
+      </c>
+      <c r="E11">
+        <v>0.00455512944529832</v>
+      </c>
+      <c r="F11">
+        <v>-0.06488285377650767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03582213279377012</v>
+        <v>0.03480766012363246</v>
       </c>
       <c r="C12">
-        <v>0.04336308695918658</v>
+        <v>0.0464895980592954</v>
       </c>
       <c r="D12">
-        <v>0.0002738798154419859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02668029022467776</v>
+      </c>
+      <c r="E12">
+        <v>0.01370740215921735</v>
+      </c>
+      <c r="F12">
+        <v>-0.06685684985064999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01168281361826853</v>
+        <v>0.01031465795953115</v>
       </c>
       <c r="C13">
-        <v>0.04286324212967017</v>
+        <v>0.04103456524725427</v>
       </c>
       <c r="D13">
-        <v>-0.01595928257422128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06768315927126883</v>
+      </c>
+      <c r="E13">
+        <v>0.06443234293429603</v>
+      </c>
+      <c r="F13">
+        <v>-0.1171552809199169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.008789089077575866</v>
+        <v>0.004488731137261683</v>
       </c>
       <c r="C14">
-        <v>0.03122202091996197</v>
+        <v>0.02871713873010835</v>
       </c>
       <c r="D14">
-        <v>0.01592573168426102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03195704548686745</v>
+      </c>
+      <c r="E14">
+        <v>0.02603199148948437</v>
+      </c>
+      <c r="F14">
+        <v>-0.09934300372526245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001759819946066883</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001822301719209311</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.002114432999135237</v>
+      </c>
+      <c r="E15">
+        <v>0.000286143859252637</v>
+      </c>
+      <c r="F15">
+        <v>-0.001441153244605861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03573268098183941</v>
+        <v>0.03194963357312068</v>
       </c>
       <c r="C16">
-        <v>0.03801539761414897</v>
+        <v>0.04448129573804666</v>
       </c>
       <c r="D16">
-        <v>-0.004495281630994832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02929963232290638</v>
+      </c>
+      <c r="E16">
+        <v>0.01882838822632923</v>
+      </c>
+      <c r="F16">
+        <v>-0.06912546988749019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02754155778967456</v>
+        <v>0.0152902572640904</v>
       </c>
       <c r="C19">
-        <v>0.0572629659413931</v>
+        <v>0.04975017979953143</v>
       </c>
       <c r="D19">
-        <v>-0.06958565523222518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1050511363374542</v>
+      </c>
+      <c r="E19">
+        <v>0.08058266461994763</v>
+      </c>
+      <c r="F19">
+        <v>-0.1009479837366417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01537171471574271</v>
+        <v>0.01214106504274465</v>
       </c>
       <c r="C20">
-        <v>0.04283576069676766</v>
+        <v>0.0395670641850673</v>
       </c>
       <c r="D20">
-        <v>-0.01620542024533541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0439351117043661</v>
+      </c>
+      <c r="E20">
+        <v>0.05537194805307293</v>
+      </c>
+      <c r="F20">
+        <v>-0.09183810378265245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01068307613336337</v>
+        <v>0.005041784389769239</v>
       </c>
       <c r="C21">
-        <v>0.04714361284112704</v>
+        <v>0.04183321734270536</v>
       </c>
       <c r="D21">
-        <v>-0.03691104317818714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07438790296670966</v>
+      </c>
+      <c r="E21">
+        <v>0.06633533155499882</v>
+      </c>
+      <c r="F21">
+        <v>-0.1331977820464262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001521229143360686</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02208831506176022</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03230817279972792</v>
+      </c>
+      <c r="E22">
+        <v>0.01471612827452718</v>
+      </c>
+      <c r="F22">
+        <v>-0.01236764655825408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001455411005350668</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02222047701841197</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03200732216304258</v>
+      </c>
+      <c r="E23">
+        <v>0.015022795237644</v>
+      </c>
+      <c r="F23">
+        <v>-0.01224672912423854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03010283525483885</v>
+        <v>0.03018780220178658</v>
       </c>
       <c r="C24">
-        <v>0.04508723344241002</v>
+        <v>0.05212584330527847</v>
       </c>
       <c r="D24">
-        <v>0.0003269230504097792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02702067036607612</v>
+      </c>
+      <c r="E24">
+        <v>0.01515622080209935</v>
+      </c>
+      <c r="F24">
+        <v>-0.0756865778346596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04684997177967224</v>
+        <v>0.04071684704191892</v>
       </c>
       <c r="C25">
-        <v>0.05586879529949702</v>
+        <v>0.05804107986926638</v>
       </c>
       <c r="D25">
-        <v>0.01090817369629235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02467666148295936</v>
+      </c>
+      <c r="E25">
+        <v>0.01173445286333445</v>
+      </c>
+      <c r="F25">
+        <v>-0.07827543155904501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01196267165527924</v>
+        <v>0.01274448300622008</v>
       </c>
       <c r="C26">
-        <v>0.01555796117221861</v>
+        <v>0.01532956329572619</v>
       </c>
       <c r="D26">
-        <v>-0.003541330894249947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02687561937179318</v>
+      </c>
+      <c r="E26">
+        <v>0.0265965613192132</v>
+      </c>
+      <c r="F26">
+        <v>-0.07565018966894435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08939121578763543</v>
+        <v>0.1396317092595163</v>
       </c>
       <c r="C28">
-        <v>-0.2184437219176639</v>
+        <v>-0.2369647542106921</v>
       </c>
       <c r="D28">
-        <v>-0.0030441548146441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01572980535572193</v>
+      </c>
+      <c r="E28">
+        <v>0.04478553861511329</v>
+      </c>
+      <c r="F28">
+        <v>-0.05266959191186226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01316760329725302</v>
+        <v>0.005382695004057836</v>
       </c>
       <c r="C29">
-        <v>0.02520606505354642</v>
+        <v>0.02567676160274718</v>
       </c>
       <c r="D29">
-        <v>0.01556789613470803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02472836837538391</v>
+      </c>
+      <c r="E29">
+        <v>0.02948578765949831</v>
+      </c>
+      <c r="F29">
+        <v>-0.09124462527536528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05266165811515191</v>
+        <v>0.03791330677013018</v>
       </c>
       <c r="C30">
-        <v>0.06339484691147652</v>
+        <v>0.06210664660866488</v>
       </c>
       <c r="D30">
-        <v>-0.03486111390509569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1088595260801454</v>
+      </c>
+      <c r="E30">
+        <v>0.03310434691564779</v>
+      </c>
+      <c r="F30">
+        <v>-0.1010401412383799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04263841529431433</v>
+        <v>0.05205559648624936</v>
       </c>
       <c r="C31">
-        <v>0.03140234466843201</v>
+        <v>0.05089801225860588</v>
       </c>
       <c r="D31">
-        <v>0.01267049130139181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002360100851139552</v>
+      </c>
+      <c r="E31">
+        <v>0.04446279918010933</v>
+      </c>
+      <c r="F31">
+        <v>-0.08245946629109277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001680639202525138</v>
+        <v>0.003037395927090169</v>
       </c>
       <c r="C32">
-        <v>0.04615972665695002</v>
+        <v>0.02932200185228463</v>
       </c>
       <c r="D32">
-        <v>-0.01740863085995691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05035363016766567</v>
+      </c>
+      <c r="E32">
+        <v>0.02076504757832509</v>
+      </c>
+      <c r="F32">
+        <v>-0.07110210484043997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02739048560962203</v>
+        <v>0.02222562637805466</v>
       </c>
       <c r="C33">
-        <v>0.05976634315120233</v>
+        <v>0.0530917957119334</v>
       </c>
       <c r="D33">
-        <v>-0.01918339949054496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08371581961239753</v>
+      </c>
+      <c r="E33">
+        <v>0.0473529056028518</v>
+      </c>
+      <c r="F33">
+        <v>-0.1282926294803576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05054361185128485</v>
+        <v>0.03936207081697524</v>
       </c>
       <c r="C34">
-        <v>0.05342215305900032</v>
+        <v>0.06359411243219971</v>
       </c>
       <c r="D34">
-        <v>0.01205483612294452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0343525525802116</v>
+      </c>
+      <c r="E34">
+        <v>-0.005943688045205178</v>
+      </c>
+      <c r="F34">
+        <v>-0.07456894933116699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009357907444573052</v>
+        <v>0.01319296040305198</v>
       </c>
       <c r="C36">
-        <v>0.01152985112077201</v>
+        <v>0.01110894642439793</v>
       </c>
       <c r="D36">
-        <v>-0.002445191435659743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02938163321417861</v>
+      </c>
+      <c r="E36">
+        <v>0.03381357567780063</v>
+      </c>
+      <c r="F36">
+        <v>-0.08358150554835707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03327378036586698</v>
+        <v>0.0252831165946253</v>
       </c>
       <c r="C38">
-        <v>0.02381691992346295</v>
+        <v>0.02428754678393178</v>
       </c>
       <c r="D38">
-        <v>-0.001593651658054572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02875287248278358</v>
+      </c>
+      <c r="E38">
+        <v>0.03485381584158036</v>
+      </c>
+      <c r="F38">
+        <v>-0.06920652490004699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04152382664180431</v>
+        <v>0.03565641624028437</v>
       </c>
       <c r="C39">
-        <v>0.06935968482421891</v>
+        <v>0.06726142629893347</v>
       </c>
       <c r="D39">
-        <v>-0.02084643384574423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05208577050328256</v>
+      </c>
+      <c r="E39">
+        <v>0.01681275217155064</v>
+      </c>
+      <c r="F39">
+        <v>-0.09076113638901019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01942632682531401</v>
+        <v>0.01526785866770055</v>
       </c>
       <c r="C40">
-        <v>0.02843883965417111</v>
+        <v>0.03716445183813913</v>
       </c>
       <c r="D40">
-        <v>-0.03526210840192565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04286397779480075</v>
+      </c>
+      <c r="E40">
+        <v>0.07212844954628313</v>
+      </c>
+      <c r="F40">
+        <v>-0.09332212473964104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01169741395080673</v>
+        <v>0.01781282791432121</v>
       </c>
       <c r="C41">
-        <v>0.002323375127065361</v>
+        <v>0.004240226528740426</v>
       </c>
       <c r="D41">
-        <v>-0.0001970499934491257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0198736337179092</v>
+      </c>
+      <c r="E41">
+        <v>0.03631647344168889</v>
+      </c>
+      <c r="F41">
+        <v>-0.07399610620792721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001198122869096999</v>
+        <v>0.0006273952962571328</v>
       </c>
       <c r="C42">
-        <v>0.01790350836762394</v>
+        <v>0.009448832043586158</v>
       </c>
       <c r="D42">
-        <v>-0.006490648307489734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003843400405177261</v>
+      </c>
+      <c r="E42">
+        <v>0.005517222207636357</v>
+      </c>
+      <c r="F42">
+        <v>0.01754316857934329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03350739576878885</v>
+        <v>0.02923265328910114</v>
       </c>
       <c r="C43">
-        <v>0.01539132041923271</v>
+        <v>0.01907891740658763</v>
       </c>
       <c r="D43">
-        <v>-0.007007051489408412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04467496442571593</v>
+      </c>
+      <c r="E43">
+        <v>0.04189430753031847</v>
+      </c>
+      <c r="F43">
+        <v>-0.08728972547339445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0220493666677457</v>
+        <v>0.01404014626628988</v>
       </c>
       <c r="C44">
-        <v>0.05333206451089468</v>
+        <v>0.04998203087202398</v>
       </c>
       <c r="D44">
-        <v>-0.01877030729108082</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04359181586830306</v>
+      </c>
+      <c r="E44">
+        <v>0.05699099050551793</v>
+      </c>
+      <c r="F44">
+        <v>-0.09445379158827734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.002552072782791814</v>
+        <v>0.006630728321721191</v>
       </c>
       <c r="C46">
-        <v>0.01856627327475889</v>
+        <v>0.02322612042470527</v>
       </c>
       <c r="D46">
-        <v>0.01454349112162617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01717546005567662</v>
+      </c>
+      <c r="E46">
+        <v>0.03315920467958529</v>
+      </c>
+      <c r="F46">
+        <v>-0.1047468290291333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07732106948851578</v>
+        <v>0.0838119224257767</v>
       </c>
       <c r="C47">
-        <v>0.07323583529039895</v>
+        <v>0.07870771520247008</v>
       </c>
       <c r="D47">
-        <v>0.00547503353040624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0100201135312777</v>
+      </c>
+      <c r="E47">
+        <v>0.05138058106777108</v>
+      </c>
+      <c r="F47">
+        <v>-0.08070937024216154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.02005043320137672</v>
+        <v>0.01492588812604693</v>
       </c>
       <c r="C48">
-        <v>0.00992216043845429</v>
+        <v>0.01579776502325125</v>
       </c>
       <c r="D48">
-        <v>0.003503218622529274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01998867991315714</v>
+      </c>
+      <c r="E48">
+        <v>0.04337045188374936</v>
+      </c>
+      <c r="F48">
+        <v>-0.09736696283542068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08762635136431077</v>
+        <v>0.07036045353164577</v>
       </c>
       <c r="C50">
-        <v>0.06730211218531161</v>
+        <v>0.06929338923010572</v>
       </c>
       <c r="D50">
-        <v>0.01405610289500544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0003618986138258727</v>
+      </c>
+      <c r="E50">
+        <v>0.0484915777109465</v>
+      </c>
+      <c r="F50">
+        <v>-0.06821416084558389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01254067832702335</v>
+        <v>0.009171262236661315</v>
       </c>
       <c r="C51">
-        <v>0.04484790754139228</v>
+        <v>0.03237620577227373</v>
       </c>
       <c r="D51">
-        <v>-0.003001632102972788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04935639173232098</v>
+      </c>
+      <c r="E51">
+        <v>0.01911589770398611</v>
+      </c>
+      <c r="F51">
+        <v>-0.08714358100580918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09313505982431866</v>
+        <v>0.08957360073596453</v>
       </c>
       <c r="C53">
-        <v>0.07627089709082774</v>
+        <v>0.09047790337779586</v>
       </c>
       <c r="D53">
-        <v>0.03773653001902244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0383136879634326</v>
+      </c>
+      <c r="E53">
+        <v>0.05200193148353879</v>
+      </c>
+      <c r="F53">
+        <v>-0.08761577384269086</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0302529665398984</v>
+        <v>0.02757838741956193</v>
       </c>
       <c r="C54">
-        <v>0.01657358386255802</v>
+        <v>0.02592519139208331</v>
       </c>
       <c r="D54">
-        <v>-0.004219864881786955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03660046173191137</v>
+      </c>
+      <c r="E54">
+        <v>0.03796356712286759</v>
+      </c>
+      <c r="F54">
+        <v>-0.09888356037628532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07284341674879506</v>
+        <v>0.08099091696466872</v>
       </c>
       <c r="C55">
-        <v>0.0704981037718201</v>
+        <v>0.07469383740926097</v>
       </c>
       <c r="D55">
-        <v>0.03652515579495923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04558612636983187</v>
+      </c>
+      <c r="E55">
+        <v>0.04281591557546294</v>
+      </c>
+      <c r="F55">
+        <v>-0.06358515460404363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1501925329627639</v>
+        <v>0.143139813257027</v>
       </c>
       <c r="C56">
-        <v>0.0943280782433579</v>
+        <v>0.1077549823271825</v>
       </c>
       <c r="D56">
-        <v>0.03366440126121249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04850034927613115</v>
+      </c>
+      <c r="E56">
+        <v>0.04861152637086492</v>
+      </c>
+      <c r="F56">
+        <v>-0.05233574894344654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003744318058044772</v>
+        <v>0.001528883988761661</v>
       </c>
       <c r="C57">
-        <v>0.003049651521568305</v>
+        <v>0.001728905756082896</v>
       </c>
       <c r="D57">
-        <v>-0.0158293936676029</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01551848775362483</v>
+      </c>
+      <c r="E57">
+        <v>0.007450157571895308</v>
+      </c>
+      <c r="F57">
+        <v>-0.01389903795958361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07453441686121741</v>
+        <v>0.02892425911855869</v>
       </c>
       <c r="C58">
-        <v>0.03963533781692963</v>
+        <v>0.03306498226821586</v>
       </c>
       <c r="D58">
-        <v>-0.9622333815715951</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5070618809895391</v>
+      </c>
+      <c r="E58">
+        <v>0.6776220453819031</v>
+      </c>
+      <c r="F58">
+        <v>0.445853818854669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1347232704321945</v>
+        <v>0.1521771390625745</v>
       </c>
       <c r="C59">
-        <v>-0.2038237139113948</v>
+        <v>-0.1850912257425488</v>
       </c>
       <c r="D59">
-        <v>-0.02417973945450237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02991697362182513</v>
+      </c>
+      <c r="E59">
+        <v>0.02401522908169179</v>
+      </c>
+      <c r="F59">
+        <v>-0.02257235022370751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3142321651530444</v>
+        <v>0.2799952987940826</v>
       </c>
       <c r="C60">
-        <v>0.08596549448722299</v>
+        <v>0.1063574775997032</v>
       </c>
       <c r="D60">
-        <v>0.02008238844214077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.201711667567467</v>
+      </c>
+      <c r="E60">
+        <v>-0.2764324049094007</v>
+      </c>
+      <c r="F60">
+        <v>0.1246586623138913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03746637990682655</v>
+        <v>0.03826014812461805</v>
       </c>
       <c r="C61">
-        <v>0.06127557304103176</v>
+        <v>0.06128783369341583</v>
       </c>
       <c r="D61">
-        <v>-0.01112112762669716</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04749428465326545</v>
+      </c>
+      <c r="E61">
+        <v>0.02240455909820159</v>
+      </c>
+      <c r="F61">
+        <v>-0.08175903760131152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01303125786823294</v>
+        <v>0.01405956707979975</v>
       </c>
       <c r="C63">
-        <v>0.03608807272582594</v>
+        <v>0.03132540670140099</v>
       </c>
       <c r="D63">
-        <v>0.005415936761510289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02375938581362732</v>
+      </c>
+      <c r="E63">
+        <v>0.03657195276956962</v>
+      </c>
+      <c r="F63">
+        <v>-0.07681273693374265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05083705160727095</v>
+        <v>0.05348800460120072</v>
       </c>
       <c r="C64">
-        <v>0.0288318545863165</v>
+        <v>0.05332055551052093</v>
       </c>
       <c r="D64">
-        <v>0.005807498969811821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01266002722527816</v>
+      </c>
+      <c r="E64">
+        <v>0.0202784222488499</v>
+      </c>
+      <c r="F64">
+        <v>-0.08786210848244566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09421966191249925</v>
+        <v>0.06580048606586229</v>
       </c>
       <c r="C65">
-        <v>0.04752013443840249</v>
+        <v>0.04335380654063287</v>
       </c>
       <c r="D65">
-        <v>-0.0339831065397084</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08436316548210265</v>
+      </c>
+      <c r="E65">
+        <v>0.03448982615019635</v>
+      </c>
+      <c r="F65">
+        <v>-0.02792043835186857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06552162489684193</v>
+        <v>0.04791545011662831</v>
       </c>
       <c r="C66">
-        <v>0.1051258071812285</v>
+        <v>0.09137216015570419</v>
       </c>
       <c r="D66">
-        <v>-0.02406416835124155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07888803502567129</v>
+      </c>
+      <c r="E66">
+        <v>0.01954862038505477</v>
+      </c>
+      <c r="F66">
+        <v>-0.09166578940783189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05725342746389812</v>
+        <v>0.04795226054860538</v>
       </c>
       <c r="C67">
-        <v>0.02933295868335758</v>
+        <v>0.03085338454067028</v>
       </c>
       <c r="D67">
-        <v>0.006146905326607053</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01626233012846131</v>
+      </c>
+      <c r="E67">
+        <v>0.01997420114949329</v>
+      </c>
+      <c r="F67">
+        <v>-0.05607231622209873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1180728461980984</v>
+        <v>0.1594885082423258</v>
       </c>
       <c r="C68">
-        <v>-0.2856285603330473</v>
+        <v>-0.2508767157463417</v>
       </c>
       <c r="D68">
-        <v>-0.006787806719531327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0182732144868617</v>
+      </c>
+      <c r="E68">
+        <v>0.03969047707703909</v>
+      </c>
+      <c r="F68">
+        <v>-0.01790303324770344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0863858227602156</v>
+        <v>0.08394309500181296</v>
       </c>
       <c r="C69">
-        <v>0.06734080362629437</v>
+        <v>0.08442344556360384</v>
       </c>
       <c r="D69">
-        <v>0.03537398591093023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00679906536969408</v>
+      </c>
+      <c r="E69">
+        <v>0.02500415251296513</v>
+      </c>
+      <c r="F69">
+        <v>-0.09523419937104501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1243191554667728</v>
+        <v>0.1499645400321244</v>
       </c>
       <c r="C71">
-        <v>-0.2449389212205234</v>
+        <v>-0.2286025524503628</v>
       </c>
       <c r="D71">
-        <v>-0.0186847119685992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01560040463596729</v>
+      </c>
+      <c r="E71">
+        <v>0.05653002957810233</v>
+      </c>
+      <c r="F71">
+        <v>-0.05705068939865987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08354512975690022</v>
+        <v>0.09431068359198298</v>
       </c>
       <c r="C72">
-        <v>0.0472627543948819</v>
+        <v>0.05777112587053137</v>
       </c>
       <c r="D72">
-        <v>0.01923332545730151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01993194756253347</v>
+      </c>
+      <c r="E72">
+        <v>0.01036310531141026</v>
+      </c>
+      <c r="F72">
+        <v>-0.08232715164805764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4343954929635777</v>
+        <v>0.345302644098705</v>
       </c>
       <c r="C73">
-        <v>0.06479011520546819</v>
+        <v>0.08846829232541732</v>
       </c>
       <c r="D73">
-        <v>-0.02705199091797676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4187703546702672</v>
+      </c>
+      <c r="E73">
+        <v>-0.4932526755563135</v>
+      </c>
+      <c r="F73">
+        <v>0.300348915623994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1197671368633217</v>
+        <v>0.1103822819702959</v>
       </c>
       <c r="C74">
-        <v>0.1162671573994925</v>
+        <v>0.1041492406962225</v>
       </c>
       <c r="D74">
-        <v>0.01385888315118131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02567581434703151</v>
+      </c>
+      <c r="E74">
+        <v>0.067857653366623</v>
+      </c>
+      <c r="F74">
+        <v>-0.06110663296372023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2575808093475968</v>
+        <v>0.253116864392029</v>
       </c>
       <c r="C75">
-        <v>0.1330294507290583</v>
+        <v>0.1494175405333389</v>
       </c>
       <c r="D75">
-        <v>0.05357620734681908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1275232270707087</v>
+      </c>
+      <c r="E75">
+        <v>0.08184235817581736</v>
+      </c>
+      <c r="F75">
+        <v>-0.02098430503295493</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1192968207866732</v>
+        <v>0.1258806759294207</v>
       </c>
       <c r="C76">
-        <v>0.1063126313673691</v>
+        <v>0.1094911220190772</v>
       </c>
       <c r="D76">
-        <v>0.03531982529061904</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05903789090233261</v>
+      </c>
+      <c r="E76">
+        <v>0.0702849828601121</v>
+      </c>
+      <c r="F76">
+        <v>-0.06791601278928998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07542902291589021</v>
+        <v>0.05935076146396859</v>
       </c>
       <c r="C77">
-        <v>0.05878644774346355</v>
+        <v>0.06768084200500105</v>
       </c>
       <c r="D77">
-        <v>-0.04329787334410864</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06753329101951221</v>
+      </c>
+      <c r="E77">
+        <v>0.06181907692755469</v>
+      </c>
+      <c r="F77">
+        <v>-0.1185905401467451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04454259652335089</v>
+        <v>0.03881508307054567</v>
       </c>
       <c r="C78">
-        <v>0.04322299154684222</v>
+        <v>0.05395394992331681</v>
       </c>
       <c r="D78">
-        <v>-0.01422402760915167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07224389500811497</v>
+      </c>
+      <c r="E78">
+        <v>0.01505335296170671</v>
+      </c>
+      <c r="F78">
+        <v>-0.09514323426990783</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01775268151639314</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03338888726067201</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05631064173697947</v>
+      </c>
+      <c r="E79">
+        <v>0.03879828116727116</v>
+      </c>
+      <c r="F79">
+        <v>-0.02725403080251076</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04682053410708003</v>
+        <v>0.03338049071519665</v>
       </c>
       <c r="C80">
-        <v>0.05254337892931641</v>
+        <v>0.05207189778155471</v>
       </c>
       <c r="D80">
-        <v>-0.02762972950822738</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04874319627286654</v>
+      </c>
+      <c r="E80">
+        <v>0.009845062816067099</v>
+      </c>
+      <c r="F80">
+        <v>-0.03517663841604258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1398751963596142</v>
+        <v>0.1381491306557169</v>
       </c>
       <c r="C81">
-        <v>0.08281588529106716</v>
+        <v>0.1010236983115006</v>
       </c>
       <c r="D81">
-        <v>0.02432572450288246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09187943072200962</v>
+      </c>
+      <c r="E81">
+        <v>0.08242541024867413</v>
+      </c>
+      <c r="F81">
+        <v>-0.02639102569281216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07142609266841027</v>
+        <v>0.1898097226310096</v>
       </c>
       <c r="C82">
-        <v>0.04756248572866151</v>
+        <v>0.1437371737648187</v>
       </c>
       <c r="D82">
-        <v>0.02923378188811791</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2246078003068782</v>
+      </c>
+      <c r="E82">
+        <v>0.0192840916552724</v>
+      </c>
+      <c r="F82">
+        <v>-0.08256818919449285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0259268548818615</v>
+        <v>0.02572498794750521</v>
       </c>
       <c r="C83">
-        <v>0.02041805973539794</v>
+        <v>0.03749184803552086</v>
       </c>
       <c r="D83">
-        <v>-0.01504515625197185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03475970723159885</v>
+      </c>
+      <c r="E83">
+        <v>0.006759409323755833</v>
+      </c>
+      <c r="F83">
+        <v>-0.05300544702809872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2372988678507267</v>
+        <v>0.2030375308435224</v>
       </c>
       <c r="C85">
-        <v>0.1183805165126081</v>
+        <v>0.1320873325754744</v>
       </c>
       <c r="D85">
-        <v>0.1183421236271178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1051115766240454</v>
+      </c>
+      <c r="E85">
+        <v>0.005090881631995807</v>
+      </c>
+      <c r="F85">
+        <v>0.01757849708077373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008898664687277721</v>
+        <v>0.01142003853032847</v>
       </c>
       <c r="C86">
-        <v>0.0188677636914331</v>
+        <v>0.02862089556642842</v>
       </c>
       <c r="D86">
-        <v>-0.02642693865820776</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07838374989038867</v>
+      </c>
+      <c r="E86">
+        <v>0.04286304913882633</v>
+      </c>
+      <c r="F86">
+        <v>-0.1443913639818419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02027570401155071</v>
+        <v>0.01813269634917056</v>
       </c>
       <c r="C87">
-        <v>0.01876873514880993</v>
+        <v>0.01930037995021556</v>
       </c>
       <c r="D87">
-        <v>-0.09561215113817205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0918187430722596</v>
+      </c>
+      <c r="E87">
+        <v>0.08049104029112301</v>
+      </c>
+      <c r="F87">
+        <v>-0.09198543826536083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1041914458477031</v>
+        <v>0.08704414421759493</v>
       </c>
       <c r="C88">
-        <v>0.0714758228969835</v>
+        <v>0.06465016709714816</v>
       </c>
       <c r="D88">
-        <v>0.01688024380694967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01493084891653462</v>
+      </c>
+      <c r="E88">
+        <v>0.02982497793707948</v>
+      </c>
+      <c r="F88">
+        <v>-0.07244422904636313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1922846617575549</v>
+        <v>0.2329428247085269</v>
       </c>
       <c r="C89">
-        <v>-0.375909842426464</v>
+        <v>-0.3762044907363372</v>
       </c>
       <c r="D89">
-        <v>0.02651090197428933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01876130652185718</v>
+      </c>
+      <c r="E89">
+        <v>0.03354282994594555</v>
+      </c>
+      <c r="F89">
+        <v>-0.09835168986219263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1790311790047028</v>
+        <v>0.2110743982169828</v>
       </c>
       <c r="C90">
-        <v>-0.3472591267119368</v>
+        <v>-0.3140732712235823</v>
       </c>
       <c r="D90">
-        <v>-0.007161292669627571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01319009877913849</v>
+      </c>
+      <c r="E90">
+        <v>0.06132159376756373</v>
+      </c>
+      <c r="F90">
+        <v>-0.04916688361722051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.200518676426831</v>
+        <v>0.1872267304906405</v>
       </c>
       <c r="C91">
-        <v>0.1184071019781875</v>
+        <v>0.1445391807960191</v>
       </c>
       <c r="D91">
-        <v>0.05290623720725145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1001208414856531</v>
+      </c>
+      <c r="E91">
+        <v>0.07492011507068343</v>
+      </c>
+      <c r="F91">
+        <v>-0.04711016549666576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1701111714759831</v>
+        <v>0.1906177900489574</v>
       </c>
       <c r="C92">
-        <v>-0.281905882739346</v>
+        <v>-0.2713491742159551</v>
       </c>
       <c r="D92">
-        <v>0.01128980610964709</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00632076273616188</v>
+      </c>
+      <c r="E92">
+        <v>0.06881179051828423</v>
+      </c>
+      <c r="F92">
+        <v>-0.07148284932322382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.201507990089648</v>
+        <v>0.2359301018783408</v>
       </c>
       <c r="C93">
-        <v>-0.3455662466233583</v>
+        <v>-0.3154590816583701</v>
       </c>
       <c r="D93">
-        <v>-0.01235891716721865</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004538542212100312</v>
+      </c>
+      <c r="E93">
+        <v>0.04891315589668851</v>
+      </c>
+      <c r="F93">
+        <v>-0.04241251783141833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2910574424829157</v>
+        <v>0.3363803496684911</v>
       </c>
       <c r="C94">
-        <v>0.1588999093269152</v>
+        <v>0.2041434621056148</v>
       </c>
       <c r="D94">
-        <v>0.07868804078180811</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4660102233275164</v>
+      </c>
+      <c r="E94">
+        <v>0.1741100393885399</v>
+      </c>
+      <c r="F94">
+        <v>0.4287586579831265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09578179300023595</v>
+        <v>0.08068905388316136</v>
       </c>
       <c r="C95">
-        <v>0.07370105676869432</v>
+        <v>0.07403865697143497</v>
       </c>
       <c r="D95">
-        <v>-0.02834428824833221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1524696042129899</v>
+      </c>
+      <c r="E95">
+        <v>-0.1421722223480311</v>
+      </c>
+      <c r="F95">
+        <v>-0.2043829981357684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2053742702787413</v>
+        <v>0.1885237854066873</v>
       </c>
       <c r="C98">
-        <v>0.02125430709571196</v>
+        <v>0.04477996831074785</v>
       </c>
       <c r="D98">
-        <v>-0.02028695890739233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1707653571112432</v>
+      </c>
+      <c r="E98">
+        <v>-0.1557519836851324</v>
+      </c>
+      <c r="F98">
+        <v>0.04357001289555611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01286577700618971</v>
+        <v>0.005264595196505918</v>
       </c>
       <c r="C101">
-        <v>0.02531760125231408</v>
+        <v>0.02541939963071161</v>
       </c>
       <c r="D101">
-        <v>0.01564497129737395</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02408295871001346</v>
+      </c>
+      <c r="E101">
+        <v>0.0299962455511315</v>
+      </c>
+      <c r="F101">
+        <v>-0.09080178143350899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1202297022422807</v>
+        <v>0.1202928691365581</v>
       </c>
       <c r="C102">
-        <v>0.07903118212946128</v>
+        <v>0.1030475809303515</v>
       </c>
       <c r="D102">
-        <v>0.04274952864580887</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05047326962221588</v>
+      </c>
+      <c r="E102">
+        <v>-0.01035209354838883</v>
+      </c>
+      <c r="F102">
+        <v>-0.03857898092075897</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
